--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId3" sheetId="1"/>
-    <sheet name="boards" r:id="rId4" sheetId="2"/>
     <sheet name="projects" r:id="rId5" sheetId="3"/>
+    <sheet name="users" r:id="rId6" sheetId="6"/>
+    <sheet name="boards" r:id="rId7" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="105">
   <si>
     <t>no</t>
   </si>
@@ -308,6 +308,27 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user19@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-0019</t>
+  </si>
+  <si>
+    <t>user19xxx</t>
+  </si>
+  <si>
+    <t>user19xxx@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-1119</t>
   </si>
 </sst>
 </file>
@@ -350,372 +371,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
@@ -867,4 +522,387 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/myapp/app/data.xlsx
+++ b/myapp/app/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="projects" r:id="rId5" sheetId="3"/>
-    <sheet name="users" r:id="rId6" sheetId="6"/>
-    <sheet name="boards" r:id="rId7" sheetId="7"/>
+    <sheet name="users" r:id="rId6" sheetId="25"/>
+    <sheet name="boards" r:id="rId7" sheetId="26"/>
+    <sheet name="projects" r:id="rId5" sheetId="27"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="105">
   <si>
     <t>no</t>
   </si>
@@ -313,22 +313,22 @@
     <t>19</t>
   </si>
   <si>
-    <t>user19</t>
-  </si>
-  <si>
-    <t>user19@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-0019</t>
-  </si>
-  <si>
-    <t>user19xxx</t>
-  </si>
-  <si>
-    <t>user19xxx@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-1119</t>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>user20@test.com</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>ggggggg</t>
+  </si>
+  <si>
+    <t>2024-07-26 14:23:23</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,407 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -522,387 +922,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>